--- a/Symphony/2021/May/All Details/29.05.2021/MC Bank Statement May-2021.xlsx
+++ b/Symphony/2021/May/All Details/29.05.2021/MC Bank Statement May-2021.xlsx
@@ -3112,6 +3112,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3143,12 +3149,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="39" fillId="35" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6276,67 +6276,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="334" t="s">
+      <c r="A1" s="336" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="334"/>
-      <c r="C1" s="334"/>
-      <c r="D1" s="334"/>
-      <c r="E1" s="334"/>
-      <c r="F1" s="334"/>
-      <c r="G1" s="334"/>
-      <c r="H1" s="334"/>
-      <c r="I1" s="334"/>
-      <c r="J1" s="334"/>
-      <c r="K1" s="334"/>
-      <c r="L1" s="334"/>
-      <c r="M1" s="334"/>
-      <c r="N1" s="334"/>
-      <c r="O1" s="334"/>
-      <c r="P1" s="334"/>
-      <c r="Q1" s="334"/>
+      <c r="B1" s="336"/>
+      <c r="C1" s="336"/>
+      <c r="D1" s="336"/>
+      <c r="E1" s="336"/>
+      <c r="F1" s="336"/>
+      <c r="G1" s="336"/>
+      <c r="H1" s="336"/>
+      <c r="I1" s="336"/>
+      <c r="J1" s="336"/>
+      <c r="K1" s="336"/>
+      <c r="L1" s="336"/>
+      <c r="M1" s="336"/>
+      <c r="N1" s="336"/>
+      <c r="O1" s="336"/>
+      <c r="P1" s="336"/>
+      <c r="Q1" s="336"/>
     </row>
     <row r="2" spans="1:24" s="119" customFormat="1" ht="18">
-      <c r="A2" s="335" t="s">
+      <c r="A2" s="337" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="335"/>
-      <c r="C2" s="335"/>
-      <c r="D2" s="335"/>
-      <c r="E2" s="335"/>
-      <c r="F2" s="335"/>
-      <c r="G2" s="335"/>
-      <c r="H2" s="335"/>
-      <c r="I2" s="335"/>
-      <c r="J2" s="335"/>
-      <c r="K2" s="335"/>
-      <c r="L2" s="335"/>
-      <c r="M2" s="335"/>
-      <c r="N2" s="335"/>
-      <c r="O2" s="335"/>
-      <c r="P2" s="335"/>
-      <c r="Q2" s="335"/>
+      <c r="B2" s="337"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="337"/>
+      <c r="G2" s="337"/>
+      <c r="H2" s="337"/>
+      <c r="I2" s="337"/>
+      <c r="J2" s="337"/>
+      <c r="K2" s="337"/>
+      <c r="L2" s="337"/>
+      <c r="M2" s="337"/>
+      <c r="N2" s="337"/>
+      <c r="O2" s="337"/>
+      <c r="P2" s="337"/>
+      <c r="Q2" s="337"/>
     </row>
     <row r="3" spans="1:24" s="120" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="336" t="s">
+      <c r="A3" s="338" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="337"/>
-      <c r="C3" s="337"/>
-      <c r="D3" s="337"/>
-      <c r="E3" s="337"/>
-      <c r="F3" s="337"/>
-      <c r="G3" s="337"/>
-      <c r="H3" s="337"/>
-      <c r="I3" s="337"/>
-      <c r="J3" s="337"/>
-      <c r="K3" s="337"/>
-      <c r="L3" s="337"/>
-      <c r="M3" s="337"/>
-      <c r="N3" s="337"/>
-      <c r="O3" s="337"/>
-      <c r="P3" s="337"/>
-      <c r="Q3" s="338"/>
+      <c r="B3" s="339"/>
+      <c r="C3" s="339"/>
+      <c r="D3" s="339"/>
+      <c r="E3" s="339"/>
+      <c r="F3" s="339"/>
+      <c r="G3" s="339"/>
+      <c r="H3" s="339"/>
+      <c r="I3" s="339"/>
+      <c r="J3" s="339"/>
+      <c r="K3" s="339"/>
+      <c r="L3" s="339"/>
+      <c r="M3" s="339"/>
+      <c r="N3" s="339"/>
+      <c r="O3" s="339"/>
+      <c r="P3" s="339"/>
+      <c r="Q3" s="340"/>
       <c r="S3" s="96"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6345,49 +6345,49 @@
       <c r="X3" s="28"/>
     </row>
     <row r="4" spans="1:24" s="121" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="339" t="s">
+      <c r="A4" s="341" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="341" t="s">
+      <c r="B4" s="343" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="343" t="s">
+      <c r="C4" s="332" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="343" t="s">
+      <c r="D4" s="332" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="343" t="s">
+      <c r="E4" s="332" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="343" t="s">
+      <c r="F4" s="332" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="343" t="s">
+      <c r="G4" s="332" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="343" t="s">
+      <c r="H4" s="332" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="343" t="s">
+      <c r="I4" s="332" t="s">
         <v>94</v>
       </c>
-      <c r="J4" s="343" t="s">
+      <c r="J4" s="332" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="343" t="s">
+      <c r="K4" s="332" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="343" t="s">
+      <c r="L4" s="332" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="343" t="s">
+      <c r="M4" s="332" t="s">
         <v>84</v>
       </c>
-      <c r="N4" s="343" t="s">
+      <c r="N4" s="332" t="s">
         <v>85</v>
       </c>
-      <c r="O4" s="332" t="s">
+      <c r="O4" s="334" t="s">
         <v>86</v>
       </c>
       <c r="P4" s="345" t="s">
@@ -6403,21 +6403,21 @@
       <c r="W4" s="123"/>
     </row>
     <row r="5" spans="1:24" s="121" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="340"/>
-      <c r="B5" s="342"/>
-      <c r="C5" s="344"/>
-      <c r="D5" s="344"/>
-      <c r="E5" s="344"/>
-      <c r="F5" s="344"/>
-      <c r="G5" s="344"/>
-      <c r="H5" s="344"/>
-      <c r="I5" s="344"/>
-      <c r="J5" s="344"/>
-      <c r="K5" s="344"/>
-      <c r="L5" s="344"/>
-      <c r="M5" s="344"/>
-      <c r="N5" s="344"/>
-      <c r="O5" s="333"/>
+      <c r="A5" s="342"/>
+      <c r="B5" s="344"/>
+      <c r="C5" s="333"/>
+      <c r="D5" s="333"/>
+      <c r="E5" s="333"/>
+      <c r="F5" s="333"/>
+      <c r="G5" s="333"/>
+      <c r="H5" s="333"/>
+      <c r="I5" s="333"/>
+      <c r="J5" s="333"/>
+      <c r="K5" s="333"/>
+      <c r="L5" s="333"/>
+      <c r="M5" s="333"/>
+      <c r="N5" s="333"/>
+      <c r="O5" s="335"/>
       <c r="P5" s="346"/>
       <c r="Q5" s="194" t="s">
         <v>87</v>
@@ -9581,6 +9581,7 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -9599,7 +9600,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9612,8 +9612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G123" sqref="G123"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -12590,14 +12590,14 @@
         <v>764665</v>
       </c>
       <c r="C28" s="94">
-        <v>812225</v>
+        <v>827225</v>
       </c>
       <c r="D28" s="94">
         <v>1260</v>
       </c>
       <c r="E28" s="94">
         <f t="shared" si="0"/>
-        <v>813485</v>
+        <v>828485</v>
       </c>
       <c r="F28" s="260"/>
       <c r="G28" s="216"/>
@@ -13110,7 +13110,7 @@
       </c>
       <c r="C33" s="278">
         <f>SUM(C5:C32)</f>
-        <v>10363863</v>
+        <v>10378863</v>
       </c>
       <c r="D33" s="278">
         <f>SUM(D5:D32)</f>
@@ -13118,11 +13118,11 @@
       </c>
       <c r="E33" s="278">
         <f>SUM(E5:E32)</f>
-        <v>10406253</v>
+        <v>10421253</v>
       </c>
       <c r="F33" s="279">
         <f>B33-E33</f>
-        <v>-310720</v>
+        <v>-325720</v>
       </c>
       <c r="G33" s="212"/>
       <c r="H33" s="212"/>
@@ -22464,10 +22464,10 @@
         <v>1726026676</v>
       </c>
       <c r="D115" s="306">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="E115" s="255" t="s">
-        <v>194</v>
+        <v>285</v>
       </c>
       <c r="F115" s="211"/>
       <c r="G115" s="211"/>
@@ -22899,7 +22899,7 @@
       <c r="C119" s="360"/>
       <c r="D119" s="310">
         <f>SUM(D37:D118)</f>
-        <v>2325676</v>
+        <v>2310676</v>
       </c>
       <c r="E119" s="300"/>
       <c r="F119" s="211"/>
@@ -23107,7 +23107,7 @@
       <c r="C121" s="348"/>
       <c r="D121" s="310">
         <f>D119+M121</f>
-        <v>2325676</v>
+        <v>2310676</v>
       </c>
       <c r="E121" s="300"/>
       <c r="F121" s="211"/>
@@ -33123,8 +33123,8 @@
   </sheetPr>
   <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I7" sqref="H7:I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33238,7 +33238,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="68">
-        <v>3107316.0395</v>
+        <v>2907316.0395</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="53"/>
@@ -33312,7 +33312,7 @@
         <v>134</v>
       </c>
       <c r="E7" s="166">
-        <v>773358.59049999993</v>
+        <v>827000</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="53"/>
@@ -33388,7 +33388,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="68">
-        <v>2325676</v>
+        <v>2310676</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="53"/>
@@ -33577,12 +33577,12 @@
       </c>
       <c r="E14" s="69">
         <f>E5+E6+E7+E8+E9+E10+E11+E12+E13</f>
-        <v>7872136.6299999999</v>
+        <v>7710778.0395</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="167">
         <f>B14-E14</f>
-        <v>0</v>
+        <v>161358.59049999993</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="8"/>
